--- a/(예시) 기숙사_방_정보.xlsx
+++ b/(예시) 기숙사_방_정보.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DmuRoom\room_assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D79399-59C9-42AC-B973-781C12C0DE26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DA73ED7-61B8-4788-B419-7E979E94E266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -689,8 +689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="G64" sqref="G64"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -735,7 +735,7 @@
         <v>1070000</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
@@ -755,7 +755,7 @@
         <v>1070000</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
@@ -775,7 +775,7 @@
         <v>1070000</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
@@ -795,7 +795,7 @@
         <v>1070000</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
@@ -815,7 +815,7 @@
         <v>1070000</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
@@ -835,7 +835,7 @@
         <v>1070000</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
@@ -855,7 +855,7 @@
         <v>1070000</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
@@ -875,7 +875,7 @@
         <v>1070000</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
@@ -895,7 +895,7 @@
         <v>1070000</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
@@ -915,7 +915,7 @@
         <v>1070000</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
@@ -935,7 +935,7 @@
         <v>1070000</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
@@ -955,7 +955,7 @@
         <v>1070000</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
@@ -975,7 +975,7 @@
         <v>1070000</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
@@ -995,7 +995,7 @@
         <v>1070000</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
@@ -1015,7 +1015,7 @@
         <v>1070000</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
@@ -1035,7 +1035,7 @@
         <v>1070000</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
@@ -1055,7 +1055,7 @@
         <v>1250000</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
@@ -1075,7 +1075,7 @@
         <v>1250000</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
@@ -1095,7 +1095,7 @@
         <v>1250000</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
@@ -1115,7 +1115,7 @@
         <v>1250000</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
@@ -1135,7 +1135,7 @@
         <v>1250000</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
@@ -1155,7 +1155,7 @@
         <v>1250000</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
@@ -1175,7 +1175,7 @@
         <v>1250000</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
@@ -1195,7 +1195,7 @@
         <v>1250000</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
@@ -1215,7 +1215,7 @@
         <v>1250000</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.45">
@@ -1235,7 +1235,7 @@
         <v>1250000</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.45">
@@ -1255,7 +1255,7 @@
         <v>1250000</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.45">
@@ -1275,7 +1275,7 @@
         <v>1250000</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.45">
@@ -1295,7 +1295,7 @@
         <v>1250000</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.45">
@@ -1315,7 +1315,7 @@
         <v>1250000</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.45">
@@ -1335,7 +1335,7 @@
         <v>1250000</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.45">
@@ -1355,7 +1355,7 @@
         <v>1250000</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.45">
@@ -1375,7 +1375,7 @@
         <v>1150000</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.45">
@@ -1395,7 +1395,7 @@
         <v>1150000</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.45">
@@ -1415,7 +1415,7 @@
         <v>1150000</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.45">
@@ -1435,7 +1435,7 @@
         <v>1150000</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.45">
@@ -1455,7 +1455,7 @@
         <v>1150000</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.45">
@@ -1475,7 +1475,7 @@
         <v>1150000</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.45">
@@ -1495,7 +1495,7 @@
         <v>1150000</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.45">
@@ -1515,7 +1515,7 @@
         <v>1150000</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.45">
@@ -1535,7 +1535,7 @@
         <v>850000</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.45">
@@ -1555,7 +1555,7 @@
         <v>850000</v>
       </c>
       <c r="F43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.45">
@@ -1575,7 +1575,7 @@
         <v>850000</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.45">
@@ -1595,7 +1595,7 @@
         <v>850000</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.45">
@@ -1615,7 +1615,7 @@
         <v>850000</v>
       </c>
       <c r="F46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.45">
@@ -1635,7 +1635,7 @@
         <v>850000</v>
       </c>
       <c r="F47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.45">
@@ -1655,7 +1655,7 @@
         <v>850000</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.45">
@@ -1675,7 +1675,7 @@
         <v>850000</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.45">
@@ -1695,7 +1695,7 @@
         <v>740000</v>
       </c>
       <c r="F50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.45">
@@ -1715,7 +1715,7 @@
         <v>740000</v>
       </c>
       <c r="F51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.45">
@@ -1735,7 +1735,7 @@
         <v>740000</v>
       </c>
       <c r="F52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.45">
@@ -1755,7 +1755,7 @@
         <v>740000</v>
       </c>
       <c r="F53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.45">
@@ -1775,7 +1775,7 @@
         <v>740000</v>
       </c>
       <c r="F54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.45">
@@ -1795,7 +1795,7 @@
         <v>740000</v>
       </c>
       <c r="F55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.45">
@@ -1815,7 +1815,7 @@
         <v>740000</v>
       </c>
       <c r="F56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.45">
@@ -1835,7 +1835,7 @@
         <v>740000</v>
       </c>
       <c r="F57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.45">
@@ -1855,7 +1855,7 @@
         <v>740000</v>
       </c>
       <c r="F58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.45">
@@ -1875,7 +1875,7 @@
         <v>740000</v>
       </c>
       <c r="F59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.45">
@@ -1895,7 +1895,7 @@
         <v>740000</v>
       </c>
       <c r="F60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.45">
@@ -1915,7 +1915,7 @@
         <v>740000</v>
       </c>
       <c r="F61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.45">
@@ -1935,7 +1935,7 @@
         <v>740000</v>
       </c>
       <c r="F62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.45">
@@ -1955,7 +1955,7 @@
         <v>740000</v>
       </c>
       <c r="F63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.45">
@@ -1975,7 +1975,7 @@
         <v>740000</v>
       </c>
       <c r="F64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.45">
@@ -1995,7 +1995,7 @@
         <v>740000</v>
       </c>
       <c r="F65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.45">
@@ -2015,7 +2015,7 @@
         <v>1680000</v>
       </c>
       <c r="F66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.45">
@@ -2035,7 +2035,7 @@
         <v>1680000</v>
       </c>
       <c r="F67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.45">
@@ -2055,7 +2055,7 @@
         <v>1580000</v>
       </c>
       <c r="F68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
